--- a/va_facility_data_2025-02-20/Placentia VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Placentia%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Placentia VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Placentia%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2d4ad00da545401da7b9feb2ea4bce71"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R01d64f286c5949bd8e25661d505c9ae5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R86e147501da4413587e93649bb5fc403"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R030c230c37984c2c96eaf421b1a7d938"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra16595d32c3f4e9ab10f2531f6906c61"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R968c5edcbae74275929d698d90fbfd24"/>
   </x:sheets>
 </x:workbook>
 </file>
